--- a/Running projects/NASTP/015- Invoice for Operation and maintenance charges May 24.xlsx
+++ b/Running projects/NASTP/015- Invoice for Operation and maintenance charges May 24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19D960-4DEE-43DF-91E2-AF5DCBBC5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64818FCD-076F-4D9D-B98D-294C37F6722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,7 +500,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -512,6 +511,38 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -545,49 +576,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -610,13 +604,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>61123</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>202747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>789578</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>35379</xdr:rowOff>
@@ -660,13 +654,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1553215</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>50859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>563726</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>126935</xdr:rowOff>
@@ -763,13 +757,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>379057</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1503006</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>79310</xdr:rowOff>
@@ -809,94 +803,6 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1545382</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>145790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>463419</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>196615</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5AB42F-DFE2-6513-B91E-704BF738E0CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11993724" y="1778647"/>
-          <a:ext cx="9745435" cy="9002381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>145791</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>194388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>265938</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>52177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DD64F1-21B0-9537-88E5-A8B9806F7D6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9408368" y="2556199"/>
-          <a:ext cx="8459381" cy="8935697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1191,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:J43"/>
+  <dimension ref="A9:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1203,12 +1109,10 @@
     <col min="2" max="2" width="54.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1218,10 +1122,10 @@
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
@@ -1230,8 +1134,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
@@ -1240,8 +1144,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
         <v>6</v>
       </c>
@@ -1267,328 +1171,270 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="1:8" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+    </row>
+    <row r="19" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-    </row>
-    <row r="21" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+    <row r="23" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="53">
+      <c r="C23" s="35"/>
+      <c r="D23" s="38">
         <f>1960000</f>
         <v>1960000</v>
       </c>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42">
         <v>15804</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="34">
         <f>SUM(D23:D23)-D24</f>
         <v>1944196</v>
       </c>
-      <c r="E25" s="33">
-        <f>1960000-228666</f>
-        <v>1731334</v>
-      </c>
-      <c r="F25" s="33">
-        <f>1960000-163333</f>
-        <v>1796667</v>
-      </c>
-      <c r="H25" s="30">
+      <c r="F25" s="29">
         <v>45200</v>
       </c>
-      <c r="I25" s="31">
+      <c r="G25" s="30">
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="H25" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="33">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="32">
         <f>D25*13%</f>
         <v>252745.48</v>
       </c>
-      <c r="E26" s="33">
-        <f>E25*13%</f>
-        <v>225073.42</v>
-      </c>
-      <c r="F26" s="33">
-        <f>F25*13%</f>
-        <v>233566.71000000002</v>
-      </c>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="34">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="33">
         <f>D26+D25</f>
         <v>2196941.48</v>
       </c>
-      <c r="E27" s="34">
-        <f>E26+E25</f>
-        <v>1956407.42</v>
-      </c>
-      <c r="F27" s="34">
-        <f>F26+F25</f>
-        <v>2030233.71</v>
-      </c>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="20"/>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="31">
+      <c r="G28" s="30">
         <v>500000</v>
       </c>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="50"/>
-      <c r="I29" s="31">
-        <f>I25-I28</f>
+      <c r="D29" s="36"/>
+      <c r="G29" s="30">
+        <f>G25-G28</f>
         <v>1460000</v>
       </c>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="61">
-        <f>E27*11%</f>
-        <v>215204.8162</v>
-      </c>
-      <c r="F30" s="61">
-        <f>F27*11%</f>
-        <v>223325.70809999999</v>
-      </c>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="61">
-        <f>E26*20%</f>
-        <v>45014.684000000008</v>
-      </c>
-      <c r="F31" s="61">
-        <f>F26*20%</f>
-        <v>46713.342000000004</v>
-      </c>
-      <c r="H31" s="30">
+      <c r="F31" s="29">
         <v>45231</v>
       </c>
-      <c r="I31" s="31">
+      <c r="G31" s="30">
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="61">
-        <f>E27-E30-E31</f>
-        <v>1696187.9197999998</v>
-      </c>
-      <c r="F32" s="61">
-        <f>F27-F30-F31</f>
-        <v>1760194.6599000001</v>
-      </c>
-      <c r="H32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="31">
+      <c r="G32" s="30">
         <v>500000</v>
       </c>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
-      <c r="I33" s="31">
-        <f>I31-I32</f>
+      <c r="G33" s="30">
+        <f>G31-G32</f>
         <v>1460000</v>
       </c>
-      <c r="J33" s="44"/>
-    </row>
-    <row r="34" spans="1:10" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="55"/>
+    </row>
+    <row r="34" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="43">
         <f>D29*11%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="59">
+      <c r="D36" s="44">
         <f>D29-D34</f>
         <v>0</v>
       </c>
-      <c r="I36" s="32">
-        <f>I33+I29</f>
+      <c r="G36" s="31">
+        <f>G33+G29</f>
         <v>2920000</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="H36" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="60"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="59"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="1">
-        <v>1696187.9197999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D40" s="44"/>
+    </row>
+    <row r="41" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
-      <c r="F41" s="62">
-        <f>F32+E40</f>
-        <v>3456382.5796999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1600,7 +1446,7 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="J25:J33"/>
+    <mergeCell ref="H25:H33"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A25:C25"/>
